--- a/IMKL2.x/1. dataspecificatie/IMKL-Dataspecificatie-changelog.xlsx
+++ b/IMKL2.x/1. dataspecificatie/IMKL-Dataspecificatie-changelog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjanssen\Documents\GitHub\imkl2015-review\IMKL2.x\1. dataspecificatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC378EF6-0A27-465E-ADEE-9063E26C6D7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5D224A-DB53-4682-81FC-AC2CAE2EFC0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-7680" windowWidth="19440" windowHeight="15000" xr2:uid="{894B1FF5-8DFC-4651-A7C4-67B2EE5B0E46}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
   <si>
     <t>Datum</t>
   </si>
@@ -430,6 +430,9 @@
   </si>
   <si>
     <t>Tekst over ruimtelijk referentiesysteem geactualiseerd</t>
+  </si>
+  <si>
+    <t>Review 1 consultatie verwerkt: meeste typo's</t>
   </si>
 </sst>
 </file>
@@ -960,8 +963,8 @@
   <dimension ref="A1:J178"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1401,10 +1404,14 @@
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="6"/>
+      <c r="A30" s="6">
+        <v>44070</v>
+      </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
+      <c r="D30" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="E30" s="10"/>
       <c r="F30" s="5"/>
     </row>
@@ -2757,6 +2764,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003ADD3040E3157B4E913BCA65F34844D7" ma:contentTypeVersion="10" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="c1765059aa1475931adc12138fdcfd8c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aafb19fa-82be-411d-a6df-c75e9235a4ea" xmlns:ns3="3dfebdfe-2b22-40ba-8672-9fbc9b4066c4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="42d79c55539af1f9f274032ce6041302" ns2:_="" ns3:_="">
     <xsd:import namespace="aafb19fa-82be-411d-a6df-c75e9235a4ea"/>
@@ -2959,22 +2981,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB1489CD-B12A-4704-A7E2-006D773FFFBF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7893A73B-81F0-482A-B793-D93E5F8DCA71}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0C9FDDB-2830-4DD6-A847-D844746B12F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2991,21 +3015,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7893A73B-81F0-482A-B793-D93E5F8DCA71}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB1489CD-B12A-4704-A7E2-006D773FFFBF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/IMKL2.x/1. dataspecificatie/IMKL-Dataspecificatie-changelog.xlsx
+++ b/IMKL2.x/1. dataspecificatie/IMKL-Dataspecificatie-changelog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjanssen\Documents\GitHub\imkl2015-review\IMKL2.x\1. dataspecificatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5D224A-DB53-4682-81FC-AC2CAE2EFC0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39AF796-A307-483A-B0E1-6BE2E31E7189}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-7680" windowWidth="19440" windowHeight="15000" xr2:uid="{894B1FF5-8DFC-4651-A7C4-67B2EE5B0E46}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{894B1FF5-8DFC-4651-A7C4-67B2EE5B0E46}"/>
   </bookViews>
   <sheets>
     <sheet name="Changelog" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="87">
   <si>
     <t>Datum</t>
   </si>
@@ -433,6 +433,57 @@
   </si>
   <si>
     <t>Review 1 consultatie verwerkt: meeste typo's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">huisaansluiting (zie ook 5.2.15) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(zie ook 5.2.12). </t>
+  </si>
+  <si>
+    <t>deze drie toepassingen</t>
+  </si>
+  <si>
+    <t>deze twee toepassingen</t>
+  </si>
+  <si>
+    <t>pag. 58, par. 5.3</t>
+  </si>
+  <si>
+    <t>pag. 26, laatste alinea "extra detailinfo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> een mantelbuis kan verwijzen naar de kabels het bevat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> een mantelbuis kan verwijzen naar de kabels die het bevat.</t>
+  </si>
+  <si>
+    <t>pag. 54, par. 5.2.25, toelichting bij het diagram "Wibon Uitlevering"</t>
+  </si>
+  <si>
+    <t>Bij de aanlevering naar de centrale voorziening zijn gelden andere condities</t>
+  </si>
+  <si>
+    <t>Bij de aanlevering naar de centrale voorziening gelden andere condities</t>
+  </si>
+  <si>
+    <t>5.3.2</t>
+  </si>
+  <si>
+    <t>https://data.gwsw.nl/basis/{term</t>
+  </si>
+  <si>
+    <t>GWSW-linkjes werken niet…</t>
+  </si>
+  <si>
+    <t>Via de Belanghebbende is de bijlage gekoppeld aan het utiliteitsnet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Van deze bijlage wordt vastgelegd op welk thema deze betrekking heeft en de te nemen eis voorzorgsmaatregel. De bijlage behoort bij een Belanghebbende netbeheerder. </t>
+  </si>
+  <si>
+    <t>pag 27</t>
   </si>
 </sst>
 </file>
@@ -561,7 +612,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -643,6 +694,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -963,8 +1017,8 @@
   <dimension ref="A1:J178"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1415,51 +1469,89 @@
       <c r="E30" s="10"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
+    <row r="31" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="6">
+        <v>44090</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>71</v>
+      </c>
       <c r="E31" s="10"/>
       <c r="F31" s="5"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
+      <c r="B32" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="E32" s="10"/>
       <c r="F32" s="5"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
+      <c r="B33" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="E33" s="10"/>
       <c r="F33" s="5"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
+      <c r="B34" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="E34" s="10"/>
       <c r="F34" s="5"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
+      <c r="B35" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="E35" s="10"/>
       <c r="F35" s="6"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="42" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
+      <c r="B36" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>85</v>
+      </c>
       <c r="E36" s="10"/>
       <c r="F36" s="5"/>
     </row>
@@ -2770,15 +2862,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003ADD3040E3157B4E913BCA65F34844D7" ma:contentTypeVersion="10" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="c1765059aa1475931adc12138fdcfd8c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aafb19fa-82be-411d-a6df-c75e9235a4ea" xmlns:ns3="3dfebdfe-2b22-40ba-8672-9fbc9b4066c4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="42d79c55539af1f9f274032ce6041302" ns2:_="" ns3:_="">
     <xsd:import namespace="aafb19fa-82be-411d-a6df-c75e9235a4ea"/>
@@ -2981,6 +3064,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB1489CD-B12A-4704-A7E2-006D773FFFBF}">
   <ds:schemaRefs>
@@ -2991,14 +3083,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7893A73B-81F0-482A-B793-D93E5F8DCA71}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0C9FDDB-2830-4DD6-A847-D844746B12F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3015,4 +3099,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7893A73B-81F0-482A-B793-D93E5F8DCA71}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/IMKL2.x/1. dataspecificatie/IMKL-Dataspecificatie-changelog.xlsx
+++ b/IMKL2.x/1. dataspecificatie/IMKL-Dataspecificatie-changelog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjanssen\Documents\GitHub\imkl2015-review\IMKL2.x\1. dataspecificatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39AF796-A307-483A-B0E1-6BE2E31E7189}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48EAFE00-49EC-4A24-B14F-5B90DFDD4BCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{894B1FF5-8DFC-4651-A7C4-67B2EE5B0E46}"/>
+    <workbookView xWindow="-19320" yWindow="-7680" windowWidth="19440" windowHeight="15000" xr2:uid="{894B1FF5-8DFC-4651-A7C4-67B2EE5B0E46}"/>
   </bookViews>
   <sheets>
     <sheet name="Changelog" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="91">
   <si>
     <t>Datum</t>
   </si>
@@ -484,6 +484,18 @@
   </si>
   <si>
     <t>pag 27</t>
+  </si>
+  <si>
+    <t>5.2.12</t>
+  </si>
+  <si>
+    <t>Een leidingelement kan ook opgenomen zijn in de grootschalige topografie. Indien dat het geval is kan het overeenkomstige BGT_ID worden opgenomen.</t>
+  </si>
+  <si>
+    <t>5.2.13</t>
+  </si>
+  <si>
+    <t>Een KabelEnLeidingContainer kan ook opgenomen zijn in de grootschalige topografie. Indien dat het geval is kan het overeenkomstige BGT_ID worden opgenomen.</t>
   </si>
 </sst>
 </file>
@@ -612,7 +624,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -697,6 +709,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1018,7 +1033,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
+      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1555,20 +1570,32 @@
       <c r="E36" s="10"/>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
+      <c r="B37" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="10"/>
+      <c r="D37" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" s="10">
+        <v>304</v>
+      </c>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
+      <c r="B38" s="6" t="s">
+        <v>89</v>
+      </c>
       <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="10"/>
+      <c r="D38" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" s="10">
+        <v>304</v>
+      </c>
       <c r="F38" s="5"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -2862,6 +2889,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003ADD3040E3157B4E913BCA65F34844D7" ma:contentTypeVersion="10" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="c1765059aa1475931adc12138fdcfd8c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aafb19fa-82be-411d-a6df-c75e9235a4ea" xmlns:ns3="3dfebdfe-2b22-40ba-8672-9fbc9b4066c4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="42d79c55539af1f9f274032ce6041302" ns2:_="" ns3:_="">
     <xsd:import namespace="aafb19fa-82be-411d-a6df-c75e9235a4ea"/>
@@ -3064,15 +3100,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB1489CD-B12A-4704-A7E2-006D773FFFBF}">
   <ds:schemaRefs>
@@ -3083,6 +3110,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7893A73B-81F0-482A-B793-D93E5F8DCA71}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0C9FDDB-2830-4DD6-A847-D844746B12F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3099,12 +3134,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7893A73B-81F0-482A-B793-D93E5F8DCA71}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>